--- a/tests/data/output/一级测试用例-24001_result.xlsx
+++ b/tests/data/output/一级测试用例-24001_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="244">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -149,12 +149,23 @@
   </si>
   <si>
     <t>com_bus_legper_outwardCount1</t>
+  </si>
+  <si>
+    <t>com_bus_industryphyname</t>
   </si>
   <si>
     <t xml:space="preserve">info_com_bus_basic.id
 </t>
   </si>
   <si>
+    <t xml:space="preserve">info_com_bus_basic.id;  info_com_bus_basic.ent_name='小胖熊001'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_com_bus_basic.id;  info_com_bus_basic.ent_name='小胖熊005'
+</t>
+  </si>
+  <si>
     <t>info_com_bus_basic.id</t>
   </si>
   <si>
@@ -162,6 +173,10 @@
   </si>
   <si>
     <t>info_com_bus_basic.id;  info_com_bus_basic.create_time='2019-07-10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_com_bus_basic.id;  info_com_bus_basic.ent_name='小胖熊010'
+</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;        info_com_bus_face.ent_status[0]='在营(开业)'</t>
@@ -305,9 +320,12 @@
     <t>info_com_bus_entinvitem.basic_id; info_com_bus_entinvitem.funded_ratio[0]=0.1;    info_com_bus_entinvitem.ent_name[0]='小胖熊010';  info_com_bus_entinvitem.funded_ratio[1]=0.3;    info_com_bus_entinvitem.ent_name[1]='小胖熊011'; info_com_bus_entinvitem.funded_ratio[2]=0.8;    info_com_bus_entinvitem.ent_name[2]='小胖熊012'</t>
   </si>
   <si>
+    <t>info_com_bus_face.basic_id; info_com_bus_face.industry_phyname[0]='建筑业'</t>
+  </si>
+  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.fr_name[0]='小胖熊001';
-info_com_bus_frinv.ent_status[0]='吊销'; info_com_bus_frinv.ent_name[0]='小胖熊004'</t>
+info_com_bus_frinv.ent_status[0]='吊销'; info_com_bus_frinv.ent_name[0]='小胖熊033'</t>
   </si>
   <si>
     <t>info_com_bus_frinv.basic_id;
@@ -350,6 +368,9 @@
     <t>com_bus_endtime=None</t>
   </si>
   <si>
+    <t>com_bus_relent_revoke=2</t>
+  </si>
+  <si>
     <t>com_bus_relent_revoke=1</t>
   </si>
   <si>
@@ -510,6 +531,12 @@
   </si>
   <si>
     <t>com_bus_legper_outwardCount1=4</t>
+  </si>
+  <si>
+    <t>com_bus_industryphyname=建筑业</t>
+  </si>
+  <si>
+    <t>com_bus_industryphyname=None</t>
   </si>
   <si>
     <t>ent_name;
@@ -543,205 +570,211 @@
     <t>苏州市</t>
   </si>
   <si>
+    <t>建筑业</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>{"ent_name":"狄秀珍","credit_code":"640104199411029096"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"幸彬","credit_code":"320621198610127195"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"伯雪梅","credit_code":"430204198909038282"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"汪艳","credit_code":"511822194205197320"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"庄小红","credit_code":"41142519950307857X"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"麻娜","credit_code":"511421199112137104"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"史淑珍","credit_code":"150727195710161305"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"陶杨","credit_code":"530128197112154096"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"别东","credit_code":"130304198209039887"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"鞠强","credit_code":"500104194701087282"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"孟建平","credit_code":"230405195206237310"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"侯丽娟","credit_code":"150423196707291195"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"明玉华","credit_code":"540123198706020057"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"束建","credit_code":"542124199012144461"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"冷玉珍","credit_code":"340103193502161848"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"张颖","credit_code":"620701195402158963"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"能淑华","credit_code":"210804197907194756"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"任凤兰","credit_code":"371200192910295712"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"涂华","credit_code":"230124196407131042"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"酆秀荣","credit_code":"540228194709019480"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"禄斌","credit_code":"445200195309116969"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"卓静","credit_code":"420625198002158085"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"伍华","credit_code":"640105196807257047"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"毕鹏","credit_code":"230109199304249670"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"贲红","credit_code":"360703198705263114"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"惠玲","credit_code":"230710197704259551"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"跋岩","credit_code":"445222198107115986"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"勾敏","credit_code":"411624194101156426"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"柳莹","credit_code":"140830199101072710"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"卫慧","credit_code":"43090219511020240X"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"叔桂芳","credit_code":"320703194204118845"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"汝超","credit_code":"341000194203309305"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"楚红","credit_code":"230183199801034594"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"臧桂芳","credit_code":"150401196703091243"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"滑梅","credit_code":"130430193302094317"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"竺莹","credit_code":"430111193110019043"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"怀洋","credit_code":"411324199505116005"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"钮玉兰","credit_code":"220400198711106274"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"裴建","credit_code":"140110199607120982"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"帅桂花","credit_code":"450401193701288533"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"贾欢","credit_code":"370103199711228116"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"衡丽娟","credit_code":"210503195603061100"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"轩淑华","credit_code":"530925193410217872"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"滑洁","credit_code":"500232198201286831"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"郝军","credit_code":"510921197808097144"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"司海燕","credit_code":"53040019490518382X"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"辕秀芳","credit_code":"130110197212166803"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"祖阳","credit_code":"130433197506068556"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"荣雷","credit_code":"371725195003119502"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"卢淑英","credit_code":"330300195608162733"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"温荣","credit_code":"330502199107247597"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"贾俊","credit_code":"513337200003233271"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"姚婷婷","credit_code":"652702192910275912"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"乔芳","credit_code":"370181197805303017"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"权涛","credit_code":"350781196111265487"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"梅宇","credit_code":"220200196303107462"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"卜桂花","credit_code":"611022196010288125"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"巫彬","credit_code":"340304194401108564"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"宋莹","credit_code":"152202195603289052"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"颛军","credit_code":"42010319970920921X"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"宫敏","credit_code":"520221198506207334"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"禄建国","credit_code":"632224199805273797"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"公伟","credit_code":"441721197609109589"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"萧玉兰","credit_code":"610924196901151510"}</t>
-  </si>
-  <si>
-    <t>{"ent_name":"姜宇","credit_code":"43090219650614188X"}</t>
+    <t>{"ent_name":"应辉","credit_code":"140800197811138596"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"年磊","credit_code":"540122194907288928"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"从阳","credit_code":"430525195610245898"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"厍军","credit_code":"370703199002243105"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"小胖熊001","credit_code":"361100200103046058"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"小胖熊005","credit_code":"36098219301120317X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"宫鹏","credit_code":"152224198005279446"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"段凤英","credit_code":"330204199508177143"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"廖静","credit_code":"652929198806181244"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"童畅","credit_code":"433130197207124843"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"阮丹丹","credit_code":"411082197801081554"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"伍岩","credit_code":"140424195704274146"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"翟林","credit_code":"140481198707306159"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"俞萍","credit_code":"650203198109095435"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"阴斌","credit_code":"130804199703186972"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"敖丽华","credit_code":"410328197310317347"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"何俊","credit_code":"130582197109079051"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"云桂英","credit_code":"520111199901056317"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"劳琴","credit_code":"341802200008162939"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"门杨","credit_code":"360827198807239904"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"束萍","credit_code":"37030119801022225X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"俟燕","credit_code":"542626198307189267"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"居超","credit_code":"611001195307019915"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"盖雪","credit_code":"150981199107169975"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"于斌","credit_code":"540228197905161365"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"夹玉华","credit_code":"511600197708192243"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"孙刚","credit_code":"522326199408150083"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"充凯","credit_code":"420606193310032925"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"曾彬","credit_code":"210422194904191223"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"童荣","credit_code":"371481199407079968"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"明龙","credit_code":"360430193705193216"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"轩娟","credit_code":"513424199905298160"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"奚建","credit_code":"653126196102282281"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"粱彬","credit_code":"330801196104275513"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"甘海燕","credit_code":"120221198306209752"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"慕娟","credit_code":"411402195812046333"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"严秀兰","credit_code":"371727193112137359"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"刘敏","credit_code":"51200219821021624X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"孙琳","credit_code":"422827197411171791"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"申凤兰","credit_code":"632521197911244656"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"翟娜","credit_code":"230521196002218951"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"於秀梅","credit_code":"61011419610530476X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"谈琴","credit_code":"34130019620516132X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"弓淑英","credit_code":"150601193005253708"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"裴芳","credit_code":"530424199704287036"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"单峰","credit_code":"210281195612282493"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"骆超","credit_code":"150701199905053608"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"赫帆","credit_code":"430381195207041633"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"文慧","credit_code":"450300199902157906"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"小胖熊010","credit_code":"150304197303027195"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"程宁","credit_code":"530328196604051663"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"邹玉","credit_code":"41172619570319828X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"成敏","credit_code":"460106197708020770"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"涂杰","credit_code":"411327194412204336"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"能峰","credit_code":"540221196208292635"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"全晨","credit_code":"52038119600730487X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"向志强","credit_code":"350602195501013490"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"仰婷","credit_code":"510114198504120066"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"彭旭","credit_code":"330122198702269204"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"宁涛","credit_code":"23060019820503707X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"人欢","credit_code":"231281194206258447"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"封晶","credit_code":"210782196010238944"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"秋倩","credit_code":"52038219620519484X"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"乜淑兰","credit_code":"370724196512291527"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"蓟红","credit_code":"632200193902204808"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"沈丹丹","credit_code":"371300195209199625"}</t>
+  </si>
+  <si>
+    <t>{"ent_name":"焦琴","credit_code":"65272319631229964X"}</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1160,25 +1193,25 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1198,25 +1231,25 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1236,25 +1269,25 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1274,19 +1307,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1306,28 +1339,28 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1347,28 +1380,28 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1388,25 +1421,25 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1426,22 +1459,22 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1461,25 +1494,25 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M10" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1499,25 +1532,25 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1537,25 +1570,25 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M12" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1575,25 +1608,25 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M13" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1613,25 +1646,25 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1651,25 +1684,25 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1689,25 +1722,25 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1727,25 +1760,25 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1765,25 +1798,25 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1803,25 +1836,25 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M19" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1841,25 +1874,25 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1879,25 +1912,25 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1917,25 +1950,25 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1955,22 +1988,22 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J23" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M23" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1990,25 +2023,25 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2028,25 +2061,25 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M25" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2066,22 +2099,22 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2101,25 +2134,25 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2139,22 +2172,22 @@
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2174,25 +2207,25 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2212,25 +2245,25 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2250,22 +2283,22 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M31" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2285,25 +2318,25 @@
         <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2323,25 +2356,25 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2361,22 +2394,22 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2396,25 +2429,25 @@
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K35">
         <v>100</v>
       </c>
       <c r="L35" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M35" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2434,25 +2467,25 @@
         <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K36">
         <v>200</v>
       </c>
       <c r="L36" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M36" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2472,25 +2505,25 @@
         <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M37" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2510,25 +2543,25 @@
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J38" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L38" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M38" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2548,19 +2581,19 @@
         <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J39" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L39" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M39" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2580,25 +2613,25 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J40" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M40" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2618,19 +2651,19 @@
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J41" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L41" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M41" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2650,25 +2683,25 @@
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L42" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2688,19 +2721,19 @@
         <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L43" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2720,25 +2753,25 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J44" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K44" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M44" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2758,19 +2791,19 @@
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J45" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L45" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M45" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2790,25 +2823,25 @@
         <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K46" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L46" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M46" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2828,19 +2861,19 @@
         <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L47" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M47" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2860,25 +2893,25 @@
         <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M48" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2898,25 +2931,25 @@
         <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K49">
         <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M49" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2936,25 +2969,25 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M50" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2974,28 +3007,28 @@
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I51" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K51">
         <v>2</v>
       </c>
       <c r="L51" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M51" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3015,25 +3048,25 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K52" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M52" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3053,19 +3086,19 @@
         <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L53" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M53" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3085,25 +3118,25 @@
         <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J54" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K54" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L54" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M54" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3123,19 +3156,19 @@
         <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J55" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L55" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M55" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3155,28 +3188,28 @@
         <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I56" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M56" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3196,28 +3229,28 @@
         <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M57" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3237,25 +3270,25 @@
         <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J58" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M58" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3275,25 +3308,25 @@
         <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M59" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3313,25 +3346,25 @@
         <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J60" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M60" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3351,22 +3384,22 @@
         <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M61" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3386,28 +3419,28 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I62" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J62" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M62" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3427,28 +3460,28 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I63" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J63" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M63" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3468,28 +3501,28 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I64" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M64" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3509,28 +3542,28 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I65" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
       <c r="L65" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M65" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3550,28 +3583,98 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I66" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J66" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K66">
         <v>4</v>
       </c>
       <c r="L66" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M66" t="s">
-        <v>233</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>24001</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J67" t="s">
+        <v>165</v>
+      </c>
+      <c r="K67" t="s">
+        <v>175</v>
+      </c>
+      <c r="L67" t="s">
+        <v>176</v>
+      </c>
+      <c r="M67" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>24001</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" t="s">
+        <v>164</v>
+      </c>
+      <c r="J68" t="s">
+        <v>165</v>
+      </c>
+      <c r="L68" t="s">
+        <v>176</v>
+      </c>
+      <c r="M68" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
